--- a/Excel/Anim.xlsx
+++ b/Excel/Anim.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,43 +44,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_dragon_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>accountPoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>micro_dragon_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animName</t>
+    <t>Combo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -472,16 +480,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -492,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -509,13 +517,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -535,7 +543,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -547,6 +555,36 @@
         <v>0.5</v>
       </c>
       <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/Anim.xlsx
+++ b/Excel/Anim.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,14 @@
   </si>
   <si>
     <t>Combo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +472,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -573,10 +581,10 @@
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>

--- a/Excel/Anim.xlsx
+++ b/Excel/Anim.xlsx
@@ -92,12 +92,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Villager_B_Boy_Skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill</t>
   </si>
 </sst>
 </file>
@@ -472,7 +471,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -581,10 +580,10 @@
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>

--- a/Excel/Anim.xlsx
+++ b/Excel/Anim.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,47 +56,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>animSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill</t>
+  </si>
+  <si>
     <t>micro_dragon_skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>animSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villager_B_Boy_atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villager_B_Boy_skill</t>
+    <t>Ghost_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghost_attack_with_ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghost_spin_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wolf_attack_repeatedly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wolf_bite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -468,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -487,16 +519,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -524,21 +556,21 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -550,10 +582,10 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -565,10 +597,10 @@
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -583,7 +615,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -592,6 +624,66 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/Anim.xlsx
+++ b/Excel/Anim.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,17 +84,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Combo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Villager_B_Boy_skill</t>
-  </si>
-  <si>
     <t>micro_dragon_skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,6 +121,30 @@
   </si>
   <si>
     <t>wolf_bite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -570,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -582,10 +599,10 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -597,10 +614,10 @@
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -612,10 +629,10 @@
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -627,10 +644,10 @@
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -642,10 +659,10 @@
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -657,10 +674,10 @@
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -672,18 +689,48 @@
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="1"/>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
